--- a/va_facility_data_2025-02-20/Jonathan M. Wainwright Memorial VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Jonathan%20M.%20Wainwright%20Memorial%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Jonathan M. Wainwright Memorial VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Jonathan%20M.%20Wainwright%20Memorial%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,11 +2,11 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rf162d5ea4080413897bedc46d89c17b3"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="Re201d668744c4a479a8f33d4db2310ea"/>
-    <x:sheet name="Wait Times" sheetId="3" r:id="R4d08a4a8256741b586c6c012f40d4315"/>
-    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="R472a6a69909a4ea89a4a3a1a17f9d4e6"/>
-    <x:sheet name="Outpatient Score" sheetId="5" r:id="R03e1e3eb6cb94ad4a0f85a481368bfba"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R8e177c97a4da46a9a8d5a3e719bbfa24"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="R2c92bf41737f4788865a1826e8ff7c7f"/>
+    <x:sheet name="Wait Times" sheetId="3" r:id="R5fa94e742248496ab4a3e47107baa292"/>
+    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="R69588446c6de46649a9ab1d9a16946f0"/>
+    <x:sheet name="Outpatient Score" sheetId="5" r:id="Rf6fa790634404729958ee5d3119a5602"/>
   </x:sheets>
 </x:workbook>
 </file>
